--- a/exam/exam.xlsx
+++ b/exam/exam.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Быков Никита Кириллович </t>
   </si>
@@ -43,6 +43,75 @@
   </si>
   <si>
     <t>Вопросы</t>
+  </si>
+  <si>
+    <t>  07.02.17</t>
+  </si>
+  <si>
+    <t>  06.02.17</t>
+  </si>
+  <si>
+    <t>  27.01.17</t>
+  </si>
+  <si>
+    <t>  25.01.17</t>
+  </si>
+  <si>
+    <t>  24.01.17</t>
+  </si>
+  <si>
+    <t>  23.01.17</t>
+  </si>
+  <si>
+    <t>  22.02.17</t>
+  </si>
+  <si>
+    <t>  21.02.17</t>
+  </si>
+  <si>
+    <t>  20.02.17</t>
+  </si>
+  <si>
+    <t>  16.02.17</t>
+  </si>
+  <si>
+    <t>  15.02.17</t>
+  </si>
+  <si>
+    <t>  14.02.17</t>
+  </si>
+  <si>
+    <t>  13.02.17</t>
+  </si>
+  <si>
+    <t>  10.02.17</t>
+  </si>
+  <si>
+    <t>  09.02.17</t>
+  </si>
+  <si>
+    <t>  08.02.17</t>
+  </si>
+  <si>
+    <t>Домашние задания</t>
+  </si>
+  <si>
+    <t>Итого домашки</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Итоговая</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
@@ -66,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,13 +143,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,166 +478,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G12"/>
+  <dimension ref="C3:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>38</v>
       </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4">
+        <v>11</v>
+      </c>
+      <c r="O5" s="4">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4">
+        <v>11</v>
+      </c>
+      <c r="S5" s="4">
+        <v>10</v>
+      </c>
+      <c r="T5" s="4">
+        <v>8</v>
+      </c>
+      <c r="U5" s="4">
+        <v>10</v>
+      </c>
+      <c r="V5" s="4">
+        <v>12</v>
+      </c>
+      <c r="W5" s="4">
+        <v>10</v>
+      </c>
+      <c r="X5" s="5">
+        <f>SUM(H5:W5)/16</f>
+        <v>10</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>X5*0.6+(Y5*0.4+Z5*0.6)*0.4</f>
+        <v>10.24</v>
+      </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>30</v>
       </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>8</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" ref="X6:X12" si="0">SUM(H6:W6)/16</f>
+        <v>1.5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" ref="AA6:AA12" si="1">X6*0.6+(Y6*0.4+Z6*0.6)*0.4</f>
+        <v>3.78</v>
+      </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>41</v>
       </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>11</v>
+      </c>
+      <c r="R7" s="4">
+        <v>10</v>
+      </c>
+      <c r="S7" s="4">
+        <v>11</v>
+      </c>
+      <c r="T7" s="4">
+        <v>12</v>
+      </c>
+      <c r="U7" s="4">
+        <v>11</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10</v>
+      </c>
+      <c r="W7" s="4">
+        <v>11</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="1"/>
+        <v>10.55</v>
+      </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>29</v>
       </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4">
+        <v>11</v>
+      </c>
+      <c r="P8" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>9</v>
+      </c>
+      <c r="R8" s="4">
+        <v>9</v>
+      </c>
+      <c r="S8" s="4">
+        <v>9</v>
+      </c>
+      <c r="T8" s="4">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4">
+        <v>10</v>
+      </c>
+      <c r="V8" s="4">
+        <v>8</v>
+      </c>
+      <c r="W8" s="4">
+        <v>9</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3125</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6274999999999995</v>
+      </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>35</v>
       </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>10</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0249999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>13</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>32</v>
       </c>
+      <c r="H10" s="3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12</v>
+      </c>
+      <c r="K10" s="4">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4">
+        <v>12</v>
+      </c>
+      <c r="N10" s="4">
+        <v>11</v>
+      </c>
+      <c r="O10" s="4">
+        <v>11</v>
+      </c>
+      <c r="P10" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>11</v>
+      </c>
+      <c r="R10" s="4">
+        <v>11</v>
+      </c>
+      <c r="S10" s="4">
+        <v>12</v>
+      </c>
+      <c r="T10" s="4">
+        <v>12</v>
+      </c>
+      <c r="U10" s="4">
+        <v>10</v>
+      </c>
+      <c r="V10" s="4">
+        <v>12</v>
+      </c>
+      <c r="W10" s="4">
+        <v>12</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>11.4375</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="1"/>
+        <v>11.102499999999999</v>
+      </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>17</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>27</v>
       </c>
+      <c r="H11" s="3">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4">
+        <v>12</v>
+      </c>
+      <c r="K11" s="4">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4">
+        <v>12</v>
+      </c>
+      <c r="M11" s="4">
+        <v>12</v>
+      </c>
+      <c r="N11" s="4">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4">
+        <v>11</v>
+      </c>
+      <c r="P11" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>12</v>
+      </c>
+      <c r="R11" s="4">
+        <v>11</v>
+      </c>
+      <c r="S11" s="4">
+        <v>12</v>
+      </c>
+      <c r="T11" s="4">
+        <v>11</v>
+      </c>
+      <c r="U11" s="4">
+        <v>10</v>
+      </c>
+      <c r="V11" s="4">
+        <v>12</v>
+      </c>
+      <c r="W11" s="4">
+        <v>12</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="5">
+        <f t="shared" si="1"/>
+        <v>11.379999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>33</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>9</v>
+      </c>
+      <c r="M12" s="4">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4">
+        <v>11</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>11</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>11</v>
+      </c>
+      <c r="V12" s="4">
+        <v>9</v>
+      </c>
+      <c r="W12" s="4">
+        <v>12</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="5">
+        <f t="shared" si="1"/>
+        <v>6.9649999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:G4"/>
+  <mergeCells count="6">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="E3:G4"/>
   </mergeCells>
+  <conditionalFormatting sqref="X5:AA12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18F88778-905E-4E04-8EB8-A57E46943AEE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18F88778-905E-4E04-8EB8-A57E46943AEE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X5:AA12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/exam/exam.xlsx
+++ b/exam/exam.xlsx
@@ -168,14 +168,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
   <dimension ref="C3:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,705 +497,707 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="2"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="R4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="2" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>38</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4">
-        <v>11</v>
-      </c>
-      <c r="M5" s="4">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4">
-        <v>11</v>
-      </c>
-      <c r="O5" s="4">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>12</v>
-      </c>
-      <c r="R5" s="4">
-        <v>11</v>
-      </c>
-      <c r="S5" s="4">
-        <v>10</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3">
+        <v>11</v>
+      </c>
+      <c r="O5" s="3">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>12</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3">
+        <v>10</v>
+      </c>
+      <c r="T5" s="3">
         <v>8</v>
       </c>
-      <c r="U5" s="4">
-        <v>10</v>
-      </c>
-      <c r="V5" s="4">
-        <v>12</v>
-      </c>
-      <c r="W5" s="4">
-        <v>10</v>
-      </c>
-      <c r="X5" s="5">
+      <c r="U5" s="3">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3">
+        <v>10</v>
+      </c>
+      <c r="X5" s="4">
         <f>SUM(H5:W5)/16</f>
         <v>10</v>
       </c>
-      <c r="Y5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="Y5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="4">
         <f>X5*0.6+(Y5*0.4+Z5*0.6)*0.4</f>
         <v>10.24</v>
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>30</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>8</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
         <v>8</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <f t="shared" ref="X6:X12" si="0">SUM(H6:W6)/16</f>
         <v>1.5</v>
       </c>
-      <c r="Y6" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="Y6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="3">
         <v>6</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <f t="shared" ref="AA6:AA12" si="1">X6*0.6+(Y6*0.4+Z6*0.6)*0.4</f>
         <v>3.78</v>
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>25</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>11</v>
-      </c>
-      <c r="M7" s="4">
-        <v>12</v>
-      </c>
-      <c r="N7" s="4">
-        <v>11</v>
-      </c>
-      <c r="O7" s="4">
-        <v>11</v>
-      </c>
-      <c r="P7" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>11</v>
-      </c>
-      <c r="R7" s="4">
-        <v>10</v>
-      </c>
-      <c r="S7" s="4">
-        <v>11</v>
-      </c>
-      <c r="T7" s="4">
-        <v>12</v>
-      </c>
-      <c r="U7" s="4">
-        <v>11</v>
-      </c>
-      <c r="V7" s="4">
-        <v>10</v>
-      </c>
-      <c r="W7" s="4">
-        <v>11</v>
-      </c>
-      <c r="X7" s="5">
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3">
+        <v>11</v>
+      </c>
+      <c r="P7" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>11</v>
+      </c>
+      <c r="R7" s="3">
+        <v>10</v>
+      </c>
+      <c r="S7" s="3">
+        <v>11</v>
+      </c>
+      <c r="T7" s="3">
+        <v>12</v>
+      </c>
+      <c r="U7" s="3">
+        <v>11</v>
+      </c>
+      <c r="V7" s="3">
+        <v>10</v>
+      </c>
+      <c r="W7" s="3">
+        <v>11</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="0"/>
         <v>10.25</v>
       </c>
-      <c r="Y7" s="4">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Y7" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="4">
         <f t="shared" si="1"/>
         <v>10.55</v>
       </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>29</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4">
-        <v>9</v>
-      </c>
-      <c r="O8" s="4">
-        <v>11</v>
-      </c>
-      <c r="P8" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>9</v>
-      </c>
-      <c r="R8" s="4">
-        <v>9</v>
-      </c>
-      <c r="S8" s="4">
-        <v>9</v>
-      </c>
-      <c r="T8" s="4">
-        <v>10</v>
-      </c>
-      <c r="U8" s="4">
-        <v>10</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3">
+        <v>11</v>
+      </c>
+      <c r="P8" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>9</v>
+      </c>
+      <c r="R8" s="3">
+        <v>9</v>
+      </c>
+      <c r="S8" s="3">
+        <v>9</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10</v>
+      </c>
+      <c r="U8" s="3">
+        <v>10</v>
+      </c>
+      <c r="V8" s="3">
         <v>8</v>
       </c>
-      <c r="W8" s="4">
-        <v>9</v>
-      </c>
-      <c r="X8" s="5">
+      <c r="W8" s="3">
+        <v>9</v>
+      </c>
+      <c r="X8" s="4">
         <f t="shared" si="0"/>
         <v>9.3125</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>7</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="3">
         <v>8</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <f t="shared" si="1"/>
         <v>8.6274999999999995</v>
       </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>16</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>35</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>9</v>
-      </c>
-      <c r="J9" s="4">
-        <v>9</v>
-      </c>
-      <c r="K9" s="4">
-        <v>9</v>
-      </c>
-      <c r="L9" s="4">
-        <v>9</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>10</v>
-      </c>
-      <c r="X9" s="5">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10</v>
+      </c>
+      <c r="X9" s="4">
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="5">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>13</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>32</v>
       </c>
-      <c r="H10" s="3">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4">
-        <v>12</v>
-      </c>
-      <c r="K10" s="4">
-        <v>12</v>
-      </c>
-      <c r="L10" s="4">
-        <v>11</v>
-      </c>
-      <c r="M10" s="4">
-        <v>12</v>
-      </c>
-      <c r="N10" s="4">
-        <v>11</v>
-      </c>
-      <c r="O10" s="4">
-        <v>11</v>
-      </c>
-      <c r="P10" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>11</v>
-      </c>
-      <c r="R10" s="4">
-        <v>11</v>
-      </c>
-      <c r="S10" s="4">
-        <v>12</v>
-      </c>
-      <c r="T10" s="4">
-        <v>12</v>
-      </c>
-      <c r="U10" s="4">
-        <v>10</v>
-      </c>
-      <c r="V10" s="4">
-        <v>12</v>
-      </c>
-      <c r="W10" s="4">
-        <v>12</v>
-      </c>
-      <c r="X10" s="5">
+      <c r="H10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3">
+        <v>12</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11</v>
+      </c>
+      <c r="O10" s="3">
+        <v>11</v>
+      </c>
+      <c r="P10" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>11</v>
+      </c>
+      <c r="R10" s="3">
+        <v>11</v>
+      </c>
+      <c r="S10" s="3">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3">
+        <v>12</v>
+      </c>
+      <c r="U10" s="3">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3">
+        <v>12</v>
+      </c>
+      <c r="W10" s="3">
+        <v>12</v>
+      </c>
+      <c r="X10" s="4">
         <f t="shared" si="0"/>
         <v>11.4375</v>
       </c>
-      <c r="Y10" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="Y10" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="4">
         <f t="shared" si="1"/>
         <v>11.102499999999999</v>
       </c>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>17</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>27</v>
       </c>
-      <c r="H11" s="3">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4">
-        <v>12</v>
-      </c>
-      <c r="K11" s="4">
-        <v>12</v>
-      </c>
-      <c r="L11" s="4">
-        <v>12</v>
-      </c>
-      <c r="M11" s="4">
-        <v>12</v>
-      </c>
-      <c r="N11" s="4">
-        <v>11</v>
-      </c>
-      <c r="O11" s="4">
-        <v>11</v>
-      </c>
-      <c r="P11" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>12</v>
-      </c>
-      <c r="R11" s="4">
-        <v>11</v>
-      </c>
-      <c r="S11" s="4">
-        <v>12</v>
-      </c>
-      <c r="T11" s="4">
-        <v>11</v>
-      </c>
-      <c r="U11" s="4">
-        <v>10</v>
-      </c>
-      <c r="V11" s="4">
-        <v>12</v>
-      </c>
-      <c r="W11" s="4">
-        <v>12</v>
-      </c>
-      <c r="X11" s="5">
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3">
+        <v>12</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>12</v>
+      </c>
+      <c r="N11" s="3">
+        <v>11</v>
+      </c>
+      <c r="O11" s="3">
+        <v>11</v>
+      </c>
+      <c r="P11" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>12</v>
+      </c>
+      <c r="R11" s="3">
+        <v>11</v>
+      </c>
+      <c r="S11" s="3">
+        <v>12</v>
+      </c>
+      <c r="T11" s="3">
+        <v>11</v>
+      </c>
+      <c r="U11" s="3">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3">
+        <v>12</v>
+      </c>
+      <c r="X11" s="4">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="Y11" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="Y11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="4">
         <f t="shared" si="1"/>
         <v>11.379999999999999</v>
       </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>19</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>33</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <v>9</v>
-      </c>
-      <c r="M12" s="4">
-        <v>10</v>
-      </c>
-      <c r="N12" s="4">
-        <v>11</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>9</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>11</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
         <v>8</v>
       </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
-        <v>11</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <v>11</v>
-      </c>
-      <c r="V12" s="4">
-        <v>9</v>
-      </c>
-      <c r="W12" s="4">
-        <v>12</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="Q12" s="3">
+        <v>7</v>
+      </c>
+      <c r="R12" s="3">
+        <v>11</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>11</v>
+      </c>
+      <c r="V12" s="3">
+        <v>9</v>
+      </c>
+      <c r="W12" s="3">
+        <v>12</v>
+      </c>
+      <c r="X12" s="4">
         <f t="shared" si="0"/>
-        <v>5.875</v>
-      </c>
-      <c r="Y12" s="4">
+        <v>7.875</v>
+      </c>
+      <c r="Y12" s="3">
         <v>8</v>
       </c>
-      <c r="Z12" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="Z12" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="4">
         <f t="shared" si="1"/>
-        <v>6.9649999999999999</v>
+        <v>8.1649999999999991</v>
       </c>
     </row>
   </sheetData>
